--- a/relazioni/esperienza_3/Foglio_esperienza_3.xlsx
+++ b/relazioni/esperienza_3/Foglio_esperienza_3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolss\Desktop\Università\02 Secondo anno\Lab\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75560A8-1E44-4153-BF4B-5FC2EF3D32D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463ECA1-E780-4EA0-93CA-F871D0FF2342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{16953D29-045C-4B62-8DDB-ED18499A0BC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16953D29-045C-4B62-8DDB-ED18499A0BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Led" sheetId="1" r:id="rId1"/>
-    <sheet name="Costante di Faraday" sheetId="2" r:id="rId2"/>
-    <sheet name="effetto fotoelettrico" sheetId="3" r:id="rId3"/>
+    <sheet name="effetto fotoelettrico" sheetId="3" r:id="rId2"/>
+    <sheet name="Faraday" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,18 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>I</t>
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>Led 1</t>
-  </si>
-  <si>
-    <t>Led 2</t>
   </si>
   <si>
     <t>ΔV</t>
@@ -58,23 +52,98 @@
     <t>ΔI</t>
   </si>
   <si>
-    <t>Cs</t>
-  </si>
-  <si>
     <t>Led acceso (colore)</t>
   </si>
   <si>
     <t>Led non acceso (colore)</t>
   </si>
   <si>
-    <t>Led 3</t>
+    <t>Elettrodo senza angolo</t>
+  </si>
+  <si>
+    <t>Elettrodo con angolo</t>
+  </si>
+  <si>
+    <t>Becher</t>
+  </si>
+  <si>
+    <t>Massa iniziale (g):</t>
+  </si>
+  <si>
+    <t>Massa  iniziale (g):</t>
+  </si>
+  <si>
+    <t>Lunghezza (cm):</t>
+  </si>
+  <si>
+    <t>Larghezza (cm):</t>
+  </si>
+  <si>
+    <t>Plexiglass</t>
+  </si>
+  <si>
+    <t>Massa sale (g):</t>
+  </si>
+  <si>
+    <t>Massa vuoto (g):</t>
+  </si>
+  <si>
+    <t>Massa con H2O (g):</t>
+  </si>
+  <si>
+    <t>Massa H2O (g):</t>
+  </si>
+  <si>
+    <t>Led 1 rosso</t>
+  </si>
+  <si>
+    <t>Led 2  violetto</t>
+  </si>
+  <si>
+    <t>Led 3 verde</t>
+  </si>
+  <si>
+    <t>Led 4 blu</t>
+  </si>
+  <si>
+    <t>Colonna1</t>
+  </si>
+  <si>
+    <t>Colore</t>
+  </si>
+  <si>
+    <t>ν (THz)</t>
+  </si>
+  <si>
+    <t>λ (nm)</t>
+  </si>
+  <si>
+    <t>rosso</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>blu</t>
+  </si>
+  <si>
+    <t>violetto</t>
+  </si>
+  <si>
+    <t>I (mA)</t>
+  </si>
+  <si>
+    <t>h verde-rosso</t>
+  </si>
+  <si>
+    <t>V (V)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,19 +165,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -119,6 +188,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,30 +240,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -238,6 +368,105 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.052</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.974</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.948</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.931</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.907</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.853</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.768</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.671</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.641</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3440000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -247,6 +476,105 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.129</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -269,6 +597,87 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>3.3119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.427</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2869999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -278,6 +687,87 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>20.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2218</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -300,6 +790,111 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>2.7160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.577</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.472</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.339</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.262</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.173</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.073</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.923</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7669999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -309,6 +904,111 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>21.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.548</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1983</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -316,6 +1016,199 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-3D55-452D-BBEE-A2D6C46183C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>led4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Led!$P$3:$P$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>3.0459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.194</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Led!$Q$3:$Q$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>20.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1346</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.63E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9E1-417B-AD37-E28B7BB5F118}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -346,6 +1239,9 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -370,6 +1266,102 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="49"/>
+                      <c:pt idx="0">
+                        <c:v>2.4020000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.3780000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.3610000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.36</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.3340000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.3149999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.286</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.2570000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.238</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.2080000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.1739999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.141</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.1179999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.0859999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.052</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.004</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.99</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.974</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.948</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.931</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.907</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.875</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.853</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.8240000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.768</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.71</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.694</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.671</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.641</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.4810000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.4390000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.3440000000000001</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:xVal>
@@ -385,6 +1377,102 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="49"/>
+                      <c:pt idx="0">
+                        <c:v>18.87</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>17.82</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17.05</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>17.02</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15.94</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>15.15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12.89</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12.16</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>11.1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.93</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.82</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8.08</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7.08</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6.13</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4.82</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4.45</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.05</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.4489999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.0739999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2.5579999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.95</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.5549999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.129</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.52500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.20080000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.15090000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.10199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5.0500000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3.7000000000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.6999999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2.9999999999999997E-4</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -402,7 +1490,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Led!$B$3</c15:sqref>
@@ -411,12 +1499,15 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Led!$A$4:$A$52</c15:sqref>
@@ -426,12 +1517,108 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="49"/>
+                      <c:pt idx="0">
+                        <c:v>2.4020000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.3780000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.3610000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.36</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.3340000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.3149999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.286</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.2570000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.238</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.2080000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.1739999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.141</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.1179999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.0859999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.052</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.004</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.99</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.974</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.948</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.931</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.907</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.875</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.853</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.8240000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.768</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.71</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.694</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.671</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.641</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.4810000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.4390000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.3440000000000001</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Led!$B$4:$B$52</c15:sqref>
@@ -441,11 +1628,107 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="49"/>
+                      <c:pt idx="0">
+                        <c:v>18.87</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>17.82</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17.05</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>17.02</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15.94</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>15.15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12.89</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12.16</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>11.1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.93</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.82</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8.08</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7.08</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6.13</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4.82</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4.45</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.05</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.4489999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.0739999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2.5579999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.95</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.5549999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.129</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.52500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.20080000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.15090000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.10199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5.0500000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3.7000000000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.6999999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2.9999999999999997E-4</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-3D55-452D-BBEE-A2D6C46183C9}"/>
                   </c:ext>
@@ -458,7 +1741,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Led!$B$2</c15:sqref>
@@ -468,7 +1751,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>I</c:v>
+                        <c:v>I (mA)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -499,7 +1782,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Led!$A$4:$A$52</c15:sqref>
@@ -509,12 +1792,108 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="49"/>
+                      <c:pt idx="0">
+                        <c:v>2.4020000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.3780000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.3610000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.36</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.3340000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.3149999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.286</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.2570000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.238</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.2080000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.1739999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.141</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.1179999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.0859999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.052</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.004</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.99</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.974</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.948</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.931</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.907</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.875</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.853</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.8240000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.768</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.71</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.694</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.671</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.641</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.4810000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.4390000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.3440000000000001</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Led!$B$4:$B$52</c15:sqref>
@@ -524,11 +1903,107 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="49"/>
+                      <c:pt idx="0">
+                        <c:v>18.87</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>17.82</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17.05</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>17.02</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15.94</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>15.15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12.89</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12.16</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>11.1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.93</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.82</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8.08</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7.08</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6.13</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4.82</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4.45</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.05</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.4489999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.0739999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2.5579999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.95</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.5549999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.129</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.52500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.20080000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.15090000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.10199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5.0500000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3.7000000000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.6999999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2.9999999999999997E-4</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-3D55-452D-BBEE-A2D6C46183C9}"/>
                   </c:ext>
@@ -1732,16 +3207,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>269240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1766,6 +3241,257 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1209040" cy="345992"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CasellaDiTesto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29058D0B-CC63-2C64-78D5-852821457823}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12039600" y="5313680"/>
+              <a:ext cx="1209040" cy="345992"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑉</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>h</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜈</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1100" b="0">
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" b="0">
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>h=4,1356*10^-15</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CasellaDiTesto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29058D0B-CC63-2C64-78D5-852821457823}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12039600" y="5313680"/>
+              <a:ext cx="1209040" cy="345992"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆𝑉=ℎ∆𝜈</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1100" b="0">
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" b="0">
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>h=4,1356*10^-15</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CasellaDiTesto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632009E2-95BE-DB0B-2C3A-F7BBB8064EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9032240" y="2915920"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1808,6 +3534,21 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F4B64F3-F322-4398-B321-01EEB48480F7}" name="Tabella1" displayName="Tabella1" ref="X29:AA34" totalsRowShown="0">
+  <autoFilter ref="X29:AA34" xr:uid="{5F4B64F3-F322-4398-B321-01EEB48480F7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7B0A2447-7244-4631-A87E-3BD9CB5D6A93}" name="Colore"/>
+    <tableColumn id="2" xr3:uid="{05B92B20-7828-46B2-887F-CCEDCF064DD0}" name="λ (nm)"/>
+    <tableColumn id="3" xr3:uid="{FB98F9EB-AA7F-4918-BEA8-ECD6336519C7}" name="ν (THz)"/>
+    <tableColumn id="4" xr3:uid="{C77469A1-07BE-4A2F-90B7-A38063EAAC5A}" name="Colonna1" dataDxfId="0">
+      <calculatedColumnFormula>Tabella1[[#This Row],[ν (THz)]]*10^12</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2127,47 +3868,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E7DCA1-D5F4-4FAD-9BB2-F35590F7643C}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N1"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="24" max="26" width="11.109375" customWidth="1"/>
+    <col min="29" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="P1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="5" t="s">
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -2175,11 +3930,11 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -2187,68 +3942,953 @@
       <c r="L2" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>4</v>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2">
+        <f>-1.602176634*10^(-19)*(K34-A35)/((AA31-AA30)/10^12)</f>
+        <v>-9.5635079493402058E-22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>1E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.01</v>
+      </c>
+      <c r="F3">
+        <v>3.3119999999999998</v>
+      </c>
+      <c r="G3">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="K3">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="L3">
+        <v>21.21</v>
+      </c>
+      <c r="P3">
+        <v>3.0459999999999998</v>
+      </c>
+      <c r="Q3">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.4020000000000001</v>
+      </c>
+      <c r="B4">
+        <v>18.87</v>
+      </c>
+      <c r="F4">
+        <v>3.2829999999999999</v>
+      </c>
+      <c r="G4">
+        <v>18.04</v>
+      </c>
+      <c r="K4">
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="L4">
+        <v>18.93</v>
+      </c>
+      <c r="P4">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>18.010000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.3780000000000001</v>
+      </c>
+      <c r="B5">
+        <v>17.82</v>
+      </c>
+      <c r="F5">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="G5">
+        <v>16.13</v>
+      </c>
+      <c r="K5">
+        <v>2.65</v>
+      </c>
+      <c r="L5">
+        <v>17.23</v>
+      </c>
+      <c r="P5">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.3610000000000002</v>
+      </c>
+      <c r="B6">
+        <v>17.05</v>
+      </c>
+      <c r="F6">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="G6">
+        <v>14.48</v>
+      </c>
+      <c r="K6">
+        <v>2.609</v>
+      </c>
+      <c r="L6">
+        <v>14.82</v>
+      </c>
+      <c r="P6">
+        <v>2.93</v>
+      </c>
+      <c r="Q6">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.36</v>
+      </c>
+      <c r="B7">
+        <v>17.02</v>
+      </c>
+      <c r="F7">
+        <v>3.202</v>
+      </c>
+      <c r="G7">
+        <v>12.03</v>
+      </c>
+      <c r="K7">
+        <v>2.577</v>
+      </c>
+      <c r="L7">
+        <v>13.09</v>
+      </c>
+      <c r="P7">
+        <v>2.89</v>
+      </c>
+      <c r="Q7">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="B8">
+        <v>15.94</v>
+      </c>
+      <c r="F8">
+        <v>3.169</v>
+      </c>
+      <c r="G8">
+        <v>9.86</v>
+      </c>
+      <c r="K8">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="L8">
+        <v>10.8</v>
+      </c>
+      <c r="P8">
+        <v>2.8410000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="B9">
+        <v>15.15</v>
+      </c>
+      <c r="F9">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="G9">
+        <v>8.42</v>
+      </c>
+      <c r="K9">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="L9">
+        <v>9.11</v>
+      </c>
+      <c r="P9">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="Q9">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.286</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>3.101</v>
+      </c>
+      <c r="G10">
+        <v>5.81</v>
+      </c>
+      <c r="K10">
+        <v>2.472</v>
+      </c>
+      <c r="L10">
+        <v>7.96</v>
+      </c>
+      <c r="P10">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="Q10">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2.2570000000000001</v>
+      </c>
+      <c r="B11">
+        <v>12.89</v>
+      </c>
+      <c r="F11">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="G11">
+        <v>3.86</v>
+      </c>
+      <c r="K11">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="L11">
+        <v>7.04</v>
+      </c>
+      <c r="P11">
+        <v>2.6960000000000002</v>
+      </c>
+      <c r="Q11">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.238</v>
+      </c>
+      <c r="B12">
+        <v>12.16</v>
+      </c>
+      <c r="F12">
+        <v>3.0449999999999999</v>
+      </c>
+      <c r="G12">
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="K12">
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="L12">
+        <v>5.94</v>
+      </c>
+      <c r="P12">
+        <v>2.6579999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>3.13</v>
+      </c>
+      <c r="S12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="B13">
+        <v>11.1</v>
+      </c>
+      <c r="F13">
+        <v>3.0190000000000001</v>
+      </c>
+      <c r="G13">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="K13">
+        <v>2.4009999999999998</v>
+      </c>
+      <c r="L13">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="P13">
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="Q13">
+        <v>2.149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2.1739999999999999</v>
+      </c>
+      <c r="B14">
+        <v>9.93</v>
+      </c>
+      <c r="F14">
+        <v>2.9870000000000001</v>
+      </c>
+      <c r="G14">
+        <v>1.286</v>
+      </c>
+      <c r="K14">
+        <v>2.375</v>
+      </c>
+      <c r="L14">
+        <v>4.12</v>
+      </c>
+      <c r="P14">
+        <v>2.5760000000000001</v>
+      </c>
+      <c r="Q14">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.141</v>
+      </c>
+      <c r="B15">
+        <v>8.82</v>
+      </c>
+      <c r="F15">
+        <v>2.964</v>
+      </c>
+      <c r="G15">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="K15">
+        <v>2.339</v>
+      </c>
+      <c r="L15">
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="P15">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="Q15">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="B16">
+        <v>8.08</v>
+      </c>
+      <c r="F16">
+        <v>2.9430000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="K16">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="L16">
+        <v>2.548</v>
+      </c>
+      <c r="P16">
+        <v>2.504</v>
+      </c>
+      <c r="Q16">
+        <v>0.33939999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="B17">
+        <v>7.08</v>
+      </c>
+      <c r="F17">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="K17">
+        <v>2.302</v>
+      </c>
+      <c r="L17">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="P17">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="Q17">
+        <v>0.24160000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2.052</v>
+      </c>
+      <c r="B18">
+        <v>6.13</v>
+      </c>
+      <c r="F18">
+        <v>2.8929999999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.2218</v>
+      </c>
+      <c r="K18">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="L18">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="P18">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>0.19370000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.004</v>
+      </c>
+      <c r="B19">
+        <v>4.82</v>
+      </c>
+      <c r="F19">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.1116</v>
+      </c>
+      <c r="K19">
+        <v>2.262</v>
+      </c>
+      <c r="L19">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="P19">
+        <v>2.4670000000000001</v>
+      </c>
+      <c r="Q19">
+        <v>0.1346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1.99</v>
+      </c>
+      <c r="B20">
+        <v>4.45</v>
+      </c>
+      <c r="F20">
+        <v>2.802</v>
+      </c>
+      <c r="G20">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="K20">
+        <v>2.2370000000000001</v>
+      </c>
+      <c r="L20">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="P20">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="Q20">
+        <v>7.3099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1.974</v>
+      </c>
+      <c r="B21">
+        <v>4.05</v>
+      </c>
+      <c r="F21">
+        <v>2.7690000000000001</v>
+      </c>
+      <c r="G21">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="K21">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="P21">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="Q21">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1.948</v>
+      </c>
+      <c r="B22">
+        <v>3.4489999999999998</v>
+      </c>
+      <c r="D22">
+        <v>1E-3</v>
+      </c>
+      <c r="F22">
+        <v>2.6909999999999998</v>
+      </c>
+      <c r="G22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K22">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="L22">
+        <v>0.24970000000000001</v>
+      </c>
+      <c r="P22">
+        <v>2.38</v>
+      </c>
+      <c r="Q22">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.931</v>
+      </c>
+      <c r="B23">
+        <v>3.0739999999999998</v>
+      </c>
+      <c r="F23">
+        <v>2.64</v>
+      </c>
+      <c r="G23">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="K23">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="L23">
+        <v>0.1983</v>
+      </c>
+      <c r="P23">
+        <v>2.3580000000000001</v>
+      </c>
+      <c r="Q23">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1.907</v>
+      </c>
+      <c r="B24">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="F24">
+        <v>2.5110000000000001</v>
+      </c>
+      <c r="G24">
+        <v>1E-3</v>
+      </c>
+      <c r="K24">
+        <v>2.173</v>
+      </c>
+      <c r="L24">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="P24">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1.875</v>
+      </c>
+      <c r="B25">
+        <v>1.95</v>
+      </c>
+      <c r="F25">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G25">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K25">
+        <v>2.157</v>
+      </c>
+      <c r="L25">
+        <v>0.1004</v>
+      </c>
+      <c r="P25">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="Q25">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1.853</v>
+      </c>
+      <c r="B26">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="F26">
+        <v>2.427</v>
+      </c>
+      <c r="G26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K26">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="L26">
+        <v>5.21E-2</v>
+      </c>
+      <c r="P26">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="Q26">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="B27">
+        <v>1.129</v>
+      </c>
+      <c r="F27">
+        <v>2.3980000000000001</v>
+      </c>
+      <c r="G27">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K27">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="L27">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="P27">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="Q27">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1.768</v>
+      </c>
+      <c r="B28">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F28">
+        <v>2.3690000000000002</v>
+      </c>
+      <c r="G28">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K28">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="L28">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="P28">
+        <v>2.194</v>
+      </c>
+      <c r="Q28">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1.71</v>
+      </c>
+      <c r="B29">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="D29">
+        <v>1E-4</v>
+      </c>
+      <c r="F29">
+        <v>2.2869999999999999</v>
+      </c>
+      <c r="G29">
+        <v>1E-4</v>
+      </c>
+      <c r="K29">
+        <v>2.073</v>
+      </c>
+      <c r="L29">
+        <v>1.03E-2</v>
+      </c>
+      <c r="P29">
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1.694</v>
+      </c>
+      <c r="B30">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="K30">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="L30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y30">
+        <v>625</v>
+      </c>
+      <c r="Z30">
+        <v>480</v>
+      </c>
+      <c r="AA30">
+        <f>Tabella1[[#This Row],[ν (THz)]]*10^12</f>
+        <v>480000000000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1.671</v>
+      </c>
+      <c r="B31">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K31">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="L31">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="X31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y31">
+        <v>520</v>
+      </c>
+      <c r="Z31">
+        <v>577</v>
+      </c>
+      <c r="AA31">
+        <f>Tabella1[[#This Row],[ν (THz)]]*10^12</f>
+        <v>577000000000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1.641</v>
+      </c>
+      <c r="B32">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="K32">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="L32">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="X32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y32">
+        <v>470</v>
+      </c>
+      <c r="Z32">
+        <v>638</v>
+      </c>
+      <c r="AA32">
+        <f>Tabella1[[#This Row],[ν (THz)]]*10^12</f>
+        <v>638000000000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="B33">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="K33">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="L33">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="X33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y33">
+        <v>395</v>
+      </c>
+      <c r="Z33">
+        <v>759</v>
+      </c>
+      <c r="AA33">
+        <f>Tabella1[[#This Row],[ν (THz)]]*10^12</f>
+        <v>759000000000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="B34">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="K34">
+        <v>1.923</v>
+      </c>
+      <c r="L34">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AA34">
+        <f>Tabella1[[#This Row],[ν (THz)]]*10^12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="B35">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K35">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="L35">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="L36">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C8B86E-3C43-4D88-A3FF-DD7B1FB0FF38}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C767BA2-0D49-4378-83FA-78F2E89BD729}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2257,11 +4897,11 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -2269,15 +4909,15 @@
       <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="U5" s="7"/>
+      <c r="U5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2287,4 +4927,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA1FA8C-942F-4935-AB20-38475AFEB133}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="10" max="11" width="16.21875" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
+        <v>78.78</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9">
+        <v>18.59</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11">
+        <v>78.87</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="11">
+        <v>18.565999999999999</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="13">
+        <v>204.39</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="15">
+        <v>2.4670000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4.8419999999999996</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="11">
+        <v>4.8520000000000003</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="13">
+        <v>938.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="13">
+        <f>L3-L2</f>
+        <v>733.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>